--- a/src_files/data_files/unitdata_additional-conventional-units.xlsx
+++ b/src_files/data_files/unitdata_additional-conventional-units.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB3DA8A-2532-4314-AF52-697AD1513146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F1A31-BA20-430D-86F4-2BBF1EEFF4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$G$175</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="51">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3999,10 +3999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4125,16 +4125,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -4156,7 +4156,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -4170,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -4184,7 +4184,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -4209,30 +4209,30 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4240,7 +4240,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -4254,7 +4254,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -4268,7 +4268,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -4279,57 +4279,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
         <v>2030</v>
       </c>
     </row>

--- a/src_files/data_files/unitdata_additional-conventional-units.xlsx
+++ b/src_files/data_files/unitdata_additional-conventional-units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F1A31-BA20-430D-86F4-2BBF1EEFF4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0148019F-76D7-44A2-8C17-4F27F6F7C84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="51">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -451,10 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -488,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -511,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -531,7 +532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -551,7 +552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -571,7 +572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -591,7 +592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -611,7 +612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -631,7 +632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -651,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -671,7 +672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -691,7 +692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -711,7 +712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -731,7 +732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -751,7 +752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -771,7 +772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -804,10 +805,7 @@
       <c r="D17">
         <v>2025</v>
       </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>300</v>
       </c>
     </row>
@@ -824,10 +822,7 @@
       <c r="D18">
         <v>2025</v>
       </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>300</v>
       </c>
     </row>
@@ -844,10 +839,7 @@
       <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>400</v>
       </c>
     </row>
@@ -864,10 +856,7 @@
       <c r="D20">
         <v>2025</v>
       </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
         <v>400</v>
       </c>
     </row>
@@ -884,10 +873,7 @@
       <c r="D21">
         <v>2025</v>
       </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <v>100</v>
       </c>
     </row>
@@ -904,11 +890,8 @@
       <c r="D22">
         <v>2025</v>
       </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <v>1500</v>
+      <c r="E22">
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -924,11 +907,8 @@
       <c r="D23">
         <v>2025</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -944,14 +924,11 @@
       <c r="D24">
         <v>2025</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>100</v>
       </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -971,7 +948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -991,7 +968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1011,7 +988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1044,10 +1021,7 @@
       <c r="D29">
         <v>2025</v>
       </c>
-      <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29">
+      <c r="E29">
         <v>1500</v>
       </c>
     </row>
@@ -1064,14 +1038,11 @@
       <c r="D30">
         <v>2025</v>
       </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30">
+      <c r="E30">
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1091,7 +1062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1183,7 +1154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +1277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1346,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1406,7 +1377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1446,7 +1417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1466,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1519,10 +1490,7 @@
       <c r="D52">
         <v>2040</v>
       </c>
-      <c r="E52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52">
+      <c r="E52">
         <v>80</v>
       </c>
     </row>
@@ -1539,10 +1507,7 @@
       <c r="D53">
         <v>2040</v>
       </c>
-      <c r="E53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53">
+      <c r="E53">
         <v>400</v>
       </c>
     </row>
@@ -1559,10 +1524,7 @@
       <c r="D54">
         <v>2040</v>
       </c>
-      <c r="E54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54">
+      <c r="E54">
         <v>400</v>
       </c>
     </row>
@@ -1579,10 +1541,7 @@
       <c r="D55">
         <v>2040</v>
       </c>
-      <c r="E55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55">
+      <c r="E55">
         <v>400</v>
       </c>
     </row>
@@ -1599,10 +1558,7 @@
       <c r="D56">
         <v>2040</v>
       </c>
-      <c r="E56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56">
+      <c r="E56">
         <v>3000</v>
       </c>
     </row>
@@ -1619,11 +1575,8 @@
       <c r="D57">
         <v>2040</v>
       </c>
-      <c r="E57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57">
-        <v>4000</v>
+      <c r="E57">
+        <v>6000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1639,14 +1592,11 @@
       <c r="D58">
         <v>2040</v>
       </c>
-      <c r="E58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58">
+      <c r="E58">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1666,7 +1616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1686,7 +1636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1706,7 +1656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -1726,7 +1676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -1746,7 +1696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -1786,7 +1736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -1866,7 +1816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -1886,7 +1836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -1906,7 +1856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +1876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -1946,7 +1896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -1966,7 +1916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -1986,7 +1936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -2006,7 +1956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +1976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -2046,7 +1996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -2066,7 +2016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -2086,7 +2036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -2106,7 +2056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -2126,7 +2076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2159,14 +2109,11 @@
       <c r="D84">
         <v>2040</v>
       </c>
-      <c r="E84" t="s">
-        <v>50</v>
-      </c>
-      <c r="F84">
+      <c r="E84">
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2186,7 +2133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2219,11 +2166,8 @@
       <c r="D87">
         <v>2040</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>100</v>
-      </c>
-      <c r="F87" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2239,11 +2183,8 @@
       <c r="D88">
         <v>2040</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>100</v>
-      </c>
-      <c r="F88" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2259,14 +2200,11 @@
       <c r="D89">
         <v>2040</v>
       </c>
-      <c r="E89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F89">
+      <c r="E89">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -2319,14 +2257,11 @@
       <c r="D92">
         <v>2040</v>
       </c>
-      <c r="E92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92">
+      <c r="E92">
         <v>600</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -2346,7 +2281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
@@ -2386,7 +2321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +2341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
@@ -2426,7 +2361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -2446,7 +2381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>13</v>
       </c>
@@ -2466,7 +2401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>13</v>
       </c>
@@ -2486,7 +2421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>15</v>
       </c>
@@ -2526,7 +2461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +2481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>16</v>
       </c>
@@ -2566,7 +2501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -2586,7 +2521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>21</v>
       </c>
@@ -2626,7 +2561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>21</v>
       </c>
@@ -2646,7 +2581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>25</v>
       </c>
@@ -2666,7 +2601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>25</v>
       </c>
@@ -2686,7 +2621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>25</v>
       </c>
@@ -2706,7 +2641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>8</v>
       </c>
@@ -2726,7 +2661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -2766,7 +2701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -2786,7 +2721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -2806,7 +2741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2826,7 +2761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -2846,7 +2781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -2879,10 +2814,7 @@
       <c r="D120">
         <v>2030</v>
       </c>
-      <c r="E120" t="s">
-        <v>50</v>
-      </c>
-      <c r="F120">
+      <c r="E120">
         <v>30</v>
       </c>
     </row>
@@ -2899,10 +2831,7 @@
       <c r="D121">
         <v>2030</v>
       </c>
-      <c r="E121" t="s">
-        <v>50</v>
-      </c>
-      <c r="F121">
+      <c r="E121">
         <v>300</v>
       </c>
     </row>
@@ -2919,10 +2848,7 @@
       <c r="D122">
         <v>2030</v>
       </c>
-      <c r="E122" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122">
+      <c r="E122">
         <v>400</v>
       </c>
     </row>
@@ -2939,10 +2865,7 @@
       <c r="D123">
         <v>2030</v>
       </c>
-      <c r="E123" t="s">
-        <v>50</v>
-      </c>
-      <c r="F123">
+      <c r="E123">
         <v>400</v>
       </c>
     </row>
@@ -2959,10 +2882,7 @@
       <c r="D124">
         <v>2030</v>
       </c>
-      <c r="E124" t="s">
-        <v>50</v>
-      </c>
-      <c r="F124">
+      <c r="E124">
         <v>2500</v>
       </c>
     </row>
@@ -2979,11 +2899,8 @@
       <c r="D125">
         <v>2030</v>
       </c>
-      <c r="E125" t="s">
-        <v>50</v>
-      </c>
-      <c r="F125">
-        <v>1500</v>
+      <c r="E125">
+        <v>6000</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -2999,10 +2916,7 @@
       <c r="D126">
         <v>2030</v>
       </c>
-      <c r="E126" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126">
+      <c r="E126">
         <v>400</v>
       </c>
     </row>
@@ -3019,10 +2933,7 @@
       <c r="D127">
         <v>2030</v>
       </c>
-      <c r="E127" t="s">
-        <v>50</v>
-      </c>
-      <c r="F127">
+      <c r="E127">
         <v>800</v>
       </c>
     </row>
@@ -3039,10 +2950,7 @@
       <c r="D128">
         <v>2030</v>
       </c>
-      <c r="E128" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128">
+      <c r="E128">
         <v>200</v>
       </c>
     </row>
@@ -3059,14 +2967,11 @@
       <c r="D129">
         <v>2030</v>
       </c>
-      <c r="E129" t="s">
-        <v>50</v>
-      </c>
-      <c r="F129">
+      <c r="E129">
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +2991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3106,7 +3011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -3126,7 +3031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -3146,7 +3051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -3166,7 +3071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -3186,7 +3091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -3206,7 +3111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -3239,14 +3144,11 @@
       <c r="D138">
         <v>2030</v>
       </c>
-      <c r="E138" t="s">
-        <v>50</v>
-      </c>
-      <c r="F138">
+      <c r="E138">
         <v>4000</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -3266,7 +3168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>25</v>
       </c>
@@ -3286,7 +3188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>25</v>
       </c>
@@ -3306,7 +3208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>25</v>
       </c>
@@ -3339,10 +3241,7 @@
       <c r="D143">
         <v>2040</v>
       </c>
-      <c r="E143" t="s">
-        <v>50</v>
-      </c>
-      <c r="F143">
+      <c r="E143">
         <v>4000</v>
       </c>
     </row>
@@ -3359,10 +3258,7 @@
       <c r="D144">
         <v>2030</v>
       </c>
-      <c r="E144" t="s">
-        <v>50</v>
-      </c>
-      <c r="F144">
+      <c r="E144">
         <v>1500</v>
       </c>
     </row>
@@ -3379,14 +3275,11 @@
       <c r="D145">
         <v>2040</v>
       </c>
-      <c r="E145" t="s">
-        <v>50</v>
-      </c>
-      <c r="F145">
+      <c r="E145">
         <v>3000</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -3406,7 +3299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -3426,7 +3319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -3446,7 +3339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -3486,7 +3379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>37</v>
       </c>
@@ -3526,7 +3419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -3546,7 +3439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -3566,7 +3459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -3586,7 +3479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -3606,7 +3499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -3626,7 +3519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -3646,7 +3539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -3666,7 +3559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>8</v>
       </c>
@@ -3686,7 +3579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
@@ -3706,7 +3599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -3726,7 +3619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>25</v>
       </c>
@@ -3746,7 +3639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -3766,7 +3659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -3786,7 +3679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -3806,7 +3699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>33</v>
       </c>
@@ -3826,7 +3719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3846,7 +3739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -3866,7 +3759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -3886,7 +3779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>25</v>
       </c>
@@ -3906,7 +3799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -3926,7 +3819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>34</v>
       </c>
@@ -3946,7 +3839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -3966,7 +3859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>33</v>
       </c>
@@ -3987,7 +3880,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G175" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DR cutoff tier 1"/>
+        <filter val="DR cutoff tier 2"/>
+        <filter val="DR upwards 1"/>
+        <filter val="DR upwards 2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -4001,7 +3903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/src_files/data_files/unitdata_additional-conventional-units.xlsx
+++ b/src_files/data_files/unitdata_additional-conventional-units.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0148019F-76D7-44A2-8C17-4F27F6F7C84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0557FDD8-3E0D-4C0F-B026-582700A02CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Remove_units" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$G$175</definedName>
@@ -40,159 +39,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="53">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>LT00</t>
+  </si>
+  <si>
+    <t>Gas CCGT present 1</t>
+  </si>
+  <si>
+    <t>National Trends</t>
+  </si>
+  <si>
+    <t>Tomi’s approximation</t>
+  </si>
+  <si>
+    <t>FI00</t>
+  </si>
+  <si>
+    <t>Electrolysis</t>
+  </si>
+  <si>
+    <t>Hydrogen storage dimensioner</t>
+  </si>
+  <si>
+    <t>SE01</t>
+  </si>
+  <si>
+    <t>SE02</t>
+  </si>
+  <si>
+    <t>NON1</t>
+  </si>
+  <si>
+    <t>Hydrogen processor</t>
+  </si>
+  <si>
+    <t>NOM1</t>
+  </si>
+  <si>
+    <t>NOS0</t>
+  </si>
+  <si>
+    <t>Battery charger</t>
+  </si>
+  <si>
+    <t>DR cutoff tier 1</t>
+  </si>
+  <si>
+    <t>DR cutoff tier 2</t>
+  </si>
+  <si>
+    <t>SE03</t>
+  </si>
+  <si>
+    <t>DE00</t>
+  </si>
+  <si>
+    <t>DR upwards 1</t>
+  </si>
+  <si>
+    <t>DR upwards 2</t>
+  </si>
+  <si>
+    <t>SE04</t>
+  </si>
+  <si>
+    <t>FR00</t>
+  </si>
+  <si>
+    <t>UK00</t>
+  </si>
+  <si>
+    <t>Gas OCGT new</t>
+  </si>
+  <si>
+    <t>Distributed Energy</t>
+  </si>
+  <si>
+    <t>Own estimate</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>EE00</t>
+  </si>
+  <si>
+    <t>DKW1</t>
+  </si>
+  <si>
+    <t>NL00</t>
+  </si>
+  <si>
+    <t>PL00</t>
+  </si>
+  <si>
+    <t>EV smart discharger</t>
+  </si>
+  <si>
+    <t>EV smart charger</t>
+  </si>
+  <si>
+    <t>ES00</t>
+  </si>
+  <si>
+    <t>Light oil</t>
+  </si>
+  <si>
+    <t>Gas CCGT old 2</t>
+  </si>
+  <si>
+    <t>Hard coal old 1</t>
+  </si>
+  <si>
+    <t>Hard coal old 1 Bio</t>
+  </si>
+  <si>
+    <t>Hard coal old 2 Bio</t>
+  </si>
+  <si>
+    <t>DKE1</t>
+  </si>
+  <si>
+    <t>Gas conventional old 2 Bio</t>
+  </si>
+  <si>
+    <t>Hard coal new Bio</t>
+  </si>
+  <si>
+    <t>capacity_output1</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Battery discharger</t>
+  </si>
+  <si>
+    <t>capacity_input1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
   <si>
     <t>Generator_ID</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>LT00</t>
-  </si>
-  <si>
-    <t>Gas CCGT present 1</t>
-  </si>
-  <si>
-    <t>National Trends</t>
-  </si>
-  <si>
-    <t>Tomi’s approximation</t>
-  </si>
-  <si>
-    <t>FI00</t>
-  </si>
-  <si>
-    <t>Electrolysis</t>
-  </si>
-  <si>
-    <t>Hydrogen storage dimensioner</t>
-  </si>
-  <si>
-    <t>SE01</t>
-  </si>
-  <si>
-    <t>SE02</t>
-  </si>
-  <si>
-    <t>NON1</t>
-  </si>
-  <si>
-    <t>Hydrogen processor</t>
-  </si>
-  <si>
-    <t>NOM1</t>
-  </si>
-  <si>
-    <t>NOS0</t>
-  </si>
-  <si>
-    <t>Battery charger</t>
-  </si>
-  <si>
-    <t>DR cutoff tier 1</t>
-  </si>
-  <si>
-    <t>DR cutoff tier 2</t>
-  </si>
-  <si>
-    <t>SE03</t>
-  </si>
-  <si>
-    <t>DE00</t>
-  </si>
-  <si>
-    <t>DR upwards 1</t>
-  </si>
-  <si>
-    <t>DR upwards 2</t>
-  </si>
-  <si>
-    <t>SE04</t>
-  </si>
-  <si>
-    <t>FR00</t>
-  </si>
-  <si>
-    <t>UK00</t>
-  </si>
-  <si>
-    <t>Gas OCGT new</t>
-  </si>
-  <si>
-    <t>Distributed Energy</t>
-  </si>
-  <si>
-    <t>Own estimate</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>EE00</t>
-  </si>
-  <si>
-    <t>DKW1</t>
-  </si>
-  <si>
-    <t>NL00</t>
-  </si>
-  <si>
-    <t>PL00</t>
-  </si>
-  <si>
-    <t>EV smart discharger</t>
-  </si>
-  <si>
-    <t>EV smart charger</t>
-  </si>
-  <si>
-    <t>ES00</t>
-  </si>
-  <si>
-    <t>Light oil</t>
-  </si>
-  <si>
-    <t>Gas CCGT old 2</t>
-  </si>
-  <si>
-    <t>Hard coal old 1</t>
-  </si>
-  <si>
-    <t>Hard coal old 1 Bio</t>
-  </si>
-  <si>
-    <t>Hard coal old 2 Bio</t>
-  </si>
-  <si>
-    <t>DKE1</t>
-  </si>
-  <si>
-    <t>Gas conventional old 2 Bio</t>
-  </si>
-  <si>
-    <t>Hard coal new Bio</t>
-  </si>
-  <si>
-    <t>capacity_output1</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Battery discharger</t>
-  </si>
-  <si>
-    <t>capacity_input1</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -250,12 +255,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +460,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -466,38 +475,41 @@
     <col min="7" max="7" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -506,21 +518,21 @@
         <v>1350</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -529,38 +541,38 @@
         <v>400</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2025</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2025</v>
@@ -569,38 +581,38 @@
         <v>700</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>2025</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2025</v>
@@ -609,18 +621,18 @@
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2025</v>
@@ -629,18 +641,18 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2025</v>
@@ -649,18 +661,18 @@
         <v>400</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2025</v>
@@ -669,18 +681,18 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2025</v>
@@ -689,18 +701,18 @@
         <v>400</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2025</v>
@@ -709,18 +721,18 @@
         <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -729,18 +741,18 @@
         <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>2025</v>
@@ -749,18 +761,18 @@
         <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2025</v>
@@ -769,18 +781,18 @@
         <v>300</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2025</v>
@@ -789,18 +801,18 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2025</v>
@@ -811,13 +823,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -828,13 +840,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>2025</v>
@@ -845,13 +857,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>2025</v>
@@ -862,13 +874,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2025</v>
@@ -879,13 +891,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2025</v>
@@ -896,13 +908,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>2025</v>
@@ -913,13 +925,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>2025</v>
@@ -930,13 +942,13 @@
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -945,18 +957,18 @@
         <v>600</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>2025</v>
@@ -965,18 +977,18 @@
         <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>2025</v>
@@ -985,18 +997,18 @@
         <v>700</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2025</v>
@@ -1005,18 +1017,18 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2025</v>
@@ -1027,13 +1039,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>2025</v>
@@ -1044,13 +1056,13 @@
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>2025</v>
@@ -1059,18 +1071,18 @@
         <v>5500</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>2040</v>
@@ -1079,21 +1091,21 @@
         <v>1350</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>2040</v>
@@ -1102,21 +1114,21 @@
         <v>4320</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>2040</v>
@@ -1125,21 +1137,21 @@
         <v>5800</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>2040</v>
@@ -1148,21 +1160,21 @@
         <v>4000</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>2040</v>
@@ -1171,21 +1183,21 @@
         <v>14000</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>2040</v>
@@ -1194,18 +1206,18 @@
         <v>6500</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>2040</v>
@@ -1214,18 +1226,18 @@
         <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>2040</v>
@@ -1234,18 +1246,18 @@
         <v>4500</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <v>2040</v>
@@ -1254,18 +1266,18 @@
         <v>3500</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>2040</v>
@@ -1274,18 +1286,18 @@
         <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42">
         <v>2040</v>
@@ -1294,18 +1306,18 @@
         <v>2000</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>2040</v>
@@ -1314,18 +1326,18 @@
         <v>3000</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44">
         <v>2040</v>
@@ -1334,18 +1346,18 @@
         <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45">
         <v>2040</v>
@@ -1354,18 +1366,18 @@
         <v>3000</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46">
         <v>2040</v>
@@ -1374,18 +1386,18 @@
         <v>2000</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47">
         <v>2040</v>
@@ -1394,18 +1406,18 @@
         <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48">
         <v>2040</v>
@@ -1414,18 +1426,18 @@
         <v>2000</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49">
         <v>2040</v>
@@ -1434,18 +1446,18 @@
         <v>1500</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50">
         <v>2040</v>
@@ -1454,18 +1466,18 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51">
         <v>2040</v>
@@ -1474,18 +1486,18 @@
         <v>1500</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52">
         <v>2040</v>
@@ -1496,13 +1508,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53">
         <v>2040</v>
@@ -1513,13 +1525,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54">
         <v>2040</v>
@@ -1530,13 +1542,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55">
         <v>2040</v>
@@ -1547,13 +1559,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56">
         <v>2040</v>
@@ -1564,13 +1576,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57">
         <v>2040</v>
@@ -1581,13 +1593,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58">
         <v>2040</v>
@@ -1598,13 +1610,13 @@
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59">
         <v>2040</v>
@@ -1613,18 +1625,18 @@
         <v>20000</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60">
         <v>2040</v>
@@ -1633,18 +1645,18 @@
         <v>300</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61">
         <v>2040</v>
@@ -1653,18 +1665,18 @@
         <v>14000</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62">
         <v>2040</v>
@@ -1673,18 +1685,18 @@
         <v>6000</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63">
         <v>2040</v>
@@ -1693,18 +1705,18 @@
         <v>400</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64">
         <v>2040</v>
@@ -1713,18 +1725,18 @@
         <v>1500</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65">
         <v>2040</v>
@@ -1733,18 +1745,18 @@
         <v>1500</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66">
         <v>2040</v>
@@ -1753,18 +1765,18 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67">
         <v>2040</v>
@@ -1773,18 +1785,18 @@
         <v>1500</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68">
         <v>2040</v>
@@ -1793,18 +1805,18 @@
         <v>1500</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69">
         <v>2040</v>
@@ -1813,18 +1825,18 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70">
         <v>2040</v>
@@ -1833,18 +1845,18 @@
         <v>1500</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71">
         <v>2040</v>
@@ -1853,18 +1865,18 @@
         <v>3500</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72">
         <v>2040</v>
@@ -1873,18 +1885,18 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73">
         <v>2040</v>
@@ -1893,18 +1905,18 @@
         <v>1500</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74">
         <v>2040</v>
@@ -1913,18 +1925,18 @@
         <v>15000</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75">
         <v>2040</v>
@@ -1933,18 +1945,18 @@
         <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76">
         <v>2040</v>
@@ -1953,18 +1965,18 @@
         <v>5000</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77">
         <v>2040</v>
@@ -1973,18 +1985,18 @@
         <v>3000</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78">
         <v>2040</v>
@@ -1993,18 +2005,18 @@
         <v>4000</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79">
         <v>2040</v>
@@ -2013,18 +2025,18 @@
         <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80">
         <v>2040</v>
@@ -2033,18 +2045,18 @@
         <v>4000</v>
       </c>
       <c r="F80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81">
         <v>2040</v>
@@ -2053,18 +2065,18 @@
         <v>6000</v>
       </c>
       <c r="F81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82">
         <v>2040</v>
@@ -2073,18 +2085,18 @@
         <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83">
         <v>2040</v>
@@ -2093,18 +2105,18 @@
         <v>5000</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84">
         <v>2040</v>
@@ -2115,13 +2127,13 @@
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85">
         <v>2040</v>
@@ -2130,18 +2142,18 @@
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86">
         <v>2040</v>
@@ -2150,18 +2162,18 @@
         <v>50000</v>
       </c>
       <c r="F86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87">
         <v>2040</v>
@@ -2172,13 +2184,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88">
         <v>2040</v>
@@ -2189,13 +2201,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89">
         <v>2040</v>
@@ -2206,13 +2218,13 @@
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90">
         <v>2040</v>
@@ -2221,18 +2233,18 @@
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91">
         <v>2040</v>
@@ -2241,18 +2253,18 @@
         <v>50000</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92">
         <v>2040</v>
@@ -2263,13 +2275,13 @@
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>2030</v>
@@ -2278,18 +2290,18 @@
         <v>900</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>2030</v>
@@ -2298,18 +2310,18 @@
         <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>2030</v>
@@ -2318,18 +2330,18 @@
         <v>900</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>2030</v>
@@ -2338,18 +2350,18 @@
         <v>20</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>2030</v>
@@ -2358,18 +2370,18 @@
         <v>750</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>2030</v>
@@ -2378,18 +2390,18 @@
         <v>10</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>2030</v>
@@ -2398,18 +2410,18 @@
         <v>400</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>2030</v>
@@ -2418,18 +2430,18 @@
         <v>10</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>2030</v>
@@ -2438,18 +2450,18 @@
         <v>400</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>2030</v>
@@ -2458,18 +2470,18 @@
         <v>300</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>2030</v>
@@ -2478,18 +2490,18 @@
         <v>300</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>2030</v>
@@ -2498,18 +2510,18 @@
         <v>300</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>2030</v>
@@ -2518,18 +2530,18 @@
         <v>300</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>2030</v>
@@ -2538,18 +2550,18 @@
         <v>4875</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>2030</v>
@@ -2558,18 +2570,18 @@
         <v>30</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>2030</v>
@@ -2578,18 +2590,18 @@
         <v>1000</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>2030</v>
@@ -2598,18 +2610,18 @@
         <v>2275</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>2030</v>
@@ -2618,18 +2630,18 @@
         <v>20</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>2030</v>
@@ -2638,18 +2650,18 @@
         <v>400</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>2030</v>
@@ -2658,18 +2670,18 @@
         <v>4320</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>2030</v>
@@ -2678,18 +2690,18 @@
         <v>5800</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
         <v>4</v>
       </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114">
         <v>2030</v>
@@ -2698,18 +2710,18 @@
         <v>1350</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115">
         <v>2030</v>
@@ -2718,18 +2730,18 @@
         <v>2000</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116">
         <v>2030</v>
@@ -2738,18 +2750,18 @@
         <v>5500</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117">
         <v>2030</v>
@@ -2758,18 +2770,18 @@
         <v>200</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118">
         <v>2030</v>
@@ -2778,18 +2790,18 @@
         <v>500</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119">
         <v>2030</v>
@@ -2798,18 +2810,18 @@
         <v>1000</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120">
         <v>2030</v>
@@ -2820,13 +2832,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121">
         <v>2030</v>
@@ -2837,13 +2849,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122">
         <v>2030</v>
@@ -2854,13 +2866,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123">
         <v>2030</v>
@@ -2871,13 +2883,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124">
         <v>2030</v>
@@ -2888,13 +2900,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125">
         <v>2030</v>
@@ -2905,13 +2917,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126">
         <v>2030</v>
@@ -2922,13 +2934,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127">
         <v>2030</v>
@@ -2939,13 +2951,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128">
         <v>2030</v>
@@ -2956,13 +2968,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129">
         <v>2030</v>
@@ -2973,13 +2985,13 @@
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130">
         <v>2030</v>
@@ -2988,18 +3000,18 @@
         <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131">
         <v>2030</v>
@@ -3008,18 +3020,18 @@
         <v>25000</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132">
         <v>2030</v>
@@ -3028,18 +3040,18 @@
         <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133">
         <v>2030</v>
@@ -3048,18 +3060,18 @@
         <v>25000</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134">
         <v>2030</v>
@@ -3068,18 +3080,18 @@
         <v>500</v>
       </c>
       <c r="F134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135">
         <v>2030</v>
@@ -3088,18 +3100,18 @@
         <v>250000</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136">
         <v>2040</v>
@@ -3108,18 +3120,18 @@
         <v>1000</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137">
         <v>2040</v>
@@ -3128,18 +3140,18 @@
         <v>500000</v>
       </c>
       <c r="F137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138">
         <v>2030</v>
@@ -3150,13 +3162,13 @@
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139">
         <v>2030</v>
@@ -3165,18 +3177,18 @@
         <v>300</v>
       </c>
       <c r="F139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140">
         <v>2030</v>
@@ -3185,18 +3197,18 @@
         <v>150000</v>
       </c>
       <c r="F140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141">
         <v>2040</v>
@@ -3205,18 +3217,18 @@
         <v>900</v>
       </c>
       <c r="F141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142">
         <v>2040</v>
@@ -3225,18 +3237,18 @@
         <v>300000</v>
       </c>
       <c r="F142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143">
         <v>2040</v>
@@ -3247,13 +3259,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144">
         <v>2030</v>
@@ -3264,13 +3276,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145">
         <v>2040</v>
@@ -3281,13 +3293,13 @@
     </row>
     <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146">
         <v>2040</v>
@@ -3296,18 +3308,18 @@
         <v>9000</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147">
         <v>2040</v>
@@ -3316,18 +3328,18 @@
         <v>4000</v>
       </c>
       <c r="F147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148">
         <v>2040</v>
@@ -3336,18 +3348,18 @@
         <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149">
         <v>2040</v>
@@ -3356,18 +3368,18 @@
         <v>50000</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150">
         <v>2030</v>
@@ -3376,18 +3388,18 @@
         <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151">
         <v>2030</v>
@@ -3396,18 +3408,18 @@
         <v>30000</v>
       </c>
       <c r="F151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152">
         <v>2040</v>
@@ -3416,18 +3428,18 @@
         <v>200</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153">
         <v>2040</v>
@@ -3436,18 +3448,18 @@
         <v>1200</v>
       </c>
       <c r="F153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154">
         <v>2040</v>
@@ -3456,18 +3468,18 @@
         <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155">
         <v>2040</v>
@@ -3476,18 +3488,18 @@
         <v>500</v>
       </c>
       <c r="F155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156">
         <v>2030</v>
@@ -3496,18 +3508,18 @@
         <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157">
         <v>2030</v>
@@ -3516,18 +3528,18 @@
         <v>200000</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158">
         <v>2040</v>
@@ -3536,18 +3548,18 @@
         <v>600</v>
       </c>
       <c r="F158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159">
         <v>2040</v>
@@ -3556,18 +3568,18 @@
         <v>400000</v>
       </c>
       <c r="F159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>2030</v>
@@ -3576,18 +3588,18 @@
         <v>300</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>2030</v>
@@ -3596,18 +3608,18 @@
         <v>300</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>2025</v>
@@ -3616,18 +3628,18 @@
         <v>2600</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D163">
         <v>2025</v>
@@ -3636,18 +3648,18 @@
         <v>900</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164">
         <v>2025</v>
@@ -3656,18 +3668,18 @@
         <v>1200</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165">
         <v>2040</v>
@@ -3676,18 +3688,18 @@
         <v>5000</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166">
         <v>2040</v>
@@ -3696,18 +3708,18 @@
         <v>25000</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167">
         <v>2040</v>
@@ -3716,18 +3728,18 @@
         <v>5000</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D168">
         <v>2025</v>
@@ -3736,18 +3748,18 @@
         <v>40</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D169">
         <v>2025</v>
@@ -3756,18 +3768,18 @@
         <v>600</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D170">
         <v>2025</v>
@@ -3776,18 +3788,18 @@
         <v>70</v>
       </c>
       <c r="F170" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D171">
         <v>2025</v>
@@ -3796,18 +3808,18 @@
         <v>900</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>2025</v>
@@ -3816,18 +3828,18 @@
         <v>1200</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173">
         <v>2040</v>
@@ -3836,18 +3848,18 @@
         <v>5000</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174">
         <v>2040</v>
@@ -3856,18 +3868,18 @@
         <v>25000</v>
       </c>
       <c r="F174" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175">
         <v>2040</v>
@@ -3876,7 +3888,330 @@
         <v>5000</v>
       </c>
       <c r="F175" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176">
+        <v>2040</v>
+      </c>
+      <c r="H176" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177">
+        <v>2040</v>
+      </c>
+      <c r="H177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>39</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178">
+        <v>2040</v>
+      </c>
+      <c r="H178" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179">
+        <v>2040</v>
+      </c>
+      <c r="H179" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180">
+        <v>2040</v>
+      </c>
+      <c r="H180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B181" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181">
+        <v>2040</v>
+      </c>
+      <c r="H181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>44</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182">
+        <v>2040</v>
+      </c>
+      <c r="H182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>2025</v>
+      </c>
+      <c r="H183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>2025</v>
+      </c>
+      <c r="H184" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>39</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>2025</v>
+      </c>
+      <c r="H185" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>2025</v>
+      </c>
+      <c r="H186" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>2025</v>
+      </c>
+      <c r="H187" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>42</v>
+      </c>
+      <c r="B188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>2025</v>
+      </c>
+      <c r="H188" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>38</v>
+      </c>
+      <c r="C189" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189">
+        <v>2030</v>
+      </c>
+      <c r="H189" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190">
+        <v>2030</v>
+      </c>
+      <c r="H190" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191">
+        <v>2030</v>
+      </c>
+      <c r="H191" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192">
+        <v>2030</v>
+      </c>
+      <c r="H192" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>41</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193">
+        <v>2030</v>
+      </c>
+      <c r="H193" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>42</v>
+      </c>
+      <c r="B194" t="s">
+        <v>43</v>
+      </c>
+      <c r="C194" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194">
+        <v>2030</v>
+      </c>
+      <c r="H194" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3897,308 +4232,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>2030</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>